--- a/biology/Médecine/Maurice_Lamy_(médecin)/Maurice_Lamy_(médecin).xlsx
+++ b/biology/Médecine/Maurice_Lamy_(médecin)/Maurice_Lamy_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maurice_Lamy_(m%C3%A9decin)</t>
+          <t>Maurice_Lamy_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Lamy, né le 18 décembre 1895 à Amiens, mort le 28 août 1975 à Bordeaux[1], est un médecin français, fondateur de la génétique médicale en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Lamy, né le 18 décembre 1895 à Amiens, mort le 28 août 1975 à Bordeaux, est un médecin français, fondateur de la génétique médicale en France.
 Médecin des hôpitaux en 1934, il est d'abord l'élève de Robert Debré à l'hôpital Bretonneau. Lorsqu'il arrive à l'hôpital Necker-Enfants malades au début des années 1940, il dirige les consultations avant de devenir le chef de deux pavillons de médecine pédiatrique : Méry et Aviragnet. 
 Il se consacre dès lors à l'étude des jumeaux et démontre la transmission génétique de nombreuses maladies. En 1951, la faculté de médecine crée pour lui la première chaire de génétique médicale. En 1959, il publie un ouvrage remarqué sur les maladies héréditaires du métabolisme. 
 Dans les années qui suivent, il mobilise l'INSERM et l'université de Paris pour construire des laboratoires de recherche, des locaux d'enseignement et des consultations spécialisées. 
